--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E163F355-F396-4023-BE50-C715934A3D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F059DA9-43E1-4731-A25D-509856931246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -91,20 +91,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Textures/mission_2d_002</t>
-  </si>
-  <si>
-    <t>Textures/mission_2d_002</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Textures/button_2D_006</t>
-  </si>
-  <si>
-    <t>Textures/button_2D_006</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アハハ！1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -118,10 +104,30 @@
     <t>アハハ！4</t>
   </si>
   <si>
-    <t>アハハ！5</t>
-  </si>
-  <si>
-    <t>アハハ！6</t>
+    <t>Textures/shop_2d_061</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_062</t>
+  </si>
+  <si>
+    <t>Textures/shop_2d_063</t>
+  </si>
+  <si>
+    <t>Textures/shop_2d_064</t>
+  </si>
+  <si>
+    <t>Textures/shop_2d_056</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_057</t>
+  </si>
+  <si>
+    <t>Textures/shop_2d_058</t>
+  </si>
+  <si>
+    <t>Textures/shop_2d_059</t>
   </si>
 </sst>
 </file>
@@ -250,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{63E1F071-2B9C-4B1E-B17C-A17902EC0D6D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3F5C2EB-9D1E-4A6A-BE2F-C1CBACD0EBA2}" name="CharacterIcon"/>
@@ -559,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -589,13 +595,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -603,13 +609,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -617,13 +623,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -631,41 +637,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F059DA9-43E1-4731-A25D-509856931246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FFE388-076C-46E5-B8E2-B0184F092E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Textures/shop_2d_059</t>
+  </si>
+  <si>
+    <t>アハハ！5</t>
   </si>
 </sst>
 </file>
@@ -256,8 +259,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{63E1F071-2B9C-4B1E-B17C-A17902EC0D6D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3F5C2EB-9D1E-4A6A-BE2F-C1CBACD0EBA2}" name="CharacterIcon"/>
@@ -565,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -644,6 +647,20 @@
       </c>
       <c r="D5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FFE388-076C-46E5-B8E2-B0184F092E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981B2CC9-790E-47A0-BBF3-3760A3B337E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -91,19 +89,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アハハ！1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アハハ！2</t>
-  </si>
-  <si>
-    <t>アハハ！3</t>
-  </si>
-  <si>
-    <t>アハハ！4</t>
-  </si>
-  <si>
     <t>Textures/shop_2d_061</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -124,13 +109,134 @@
     <t>Textures/shop_2d_057</t>
   </si>
   <si>
+    <t>いらっしゃいませ！
+ここは『商店』ぴ。
+クラフトシードやクラパス、ポイント交換をする場所ぴ。</t>
+    <rPh sb="14" eb="16">
+      <t>ショウテン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計図購入はこちらもぴ！
+素材が足りなかったら、うちで買えるもぴ。</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・・・
+（ガチャガチャ回してくてぴ？）</t>
+    <rPh sb="11" eb="12">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>こんにちは！
+ここは持っているポイントをギフト券に交換申請できるところよ。</t>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計図市場へようこそ！「いちば」って読むすぴ。
+好きなクラフターの設計図を探せるすぴ。
+自分の設計図もアップしてみるすぴ。</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチバ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>セッケイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_078</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_060</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここは『ギフト店』よ。
+1,000ポイント以上持っていると、ギフト券に交換申請ができるわ。
+またきてね。</t>
+    <rPh sb="7" eb="8">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Textures/shop_2d_058</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Textures/shop_2d_059</t>
-  </si>
-  <si>
-    <t>アハハ！5</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -228,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +345,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -259,8 +371,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{63E1F071-2B9C-4B1E-B17C-A17902EC0D6D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3F5C2EB-9D1E-4A6A-BE2F-C1CBACD0EBA2}" name="CharacterIcon"/>
@@ -568,15 +680,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -593,74 +706,88 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981B2CC9-790E-47A0-BBF3-3760A3B337E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C4586-AD05-4EAE-BE85-6DFC3ECFC74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -236,6 +236,17 @@
   </si>
   <si>
     <t>Textures/shop_2d_059</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おめでとぴ！
+設計図チュートリアルに案内するぴ！</t>
+    <rPh sb="7" eb="10">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>アンナイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -371,8 +382,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{63E1F071-2B9C-4B1E-B17C-A17902EC0D6D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3F5C2EB-9D1E-4A6A-BE2F-C1CBACD0EBA2}" name="CharacterIcon"/>
@@ -680,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -788,6 +799,20 @@
       </c>
       <c r="D7" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C4586-AD05-4EAE-BE85-6DFC3ECFC74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8537045-552C-4237-8B11-C3AB9285165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -239,14 +239,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>おめでとぴ！
-設計図チュートリアルに案内するぴ！</t>
-    <rPh sb="7" eb="10">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>アンナイ</t>
-    </rPh>
+    <t>パンパカパーン！
+ブロックを１００個おいたぴ！
+特別なチュートリアルに案内するよ！</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -694,7 +689,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -801,7 +796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8537045-552C-4237-8B11-C3AB9285165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9AF474-6DFE-465C-BCFC-0417027CE9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -242,6 +242,22 @@
     <t>パンパカパーン！
 ブロックを１００個おいたぴ！
 特別なチュートリアルに案内するよ！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！Start</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！End</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！Start2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！End2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -377,8 +393,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D12" totalsRowShown="0">
+  <autoFilter ref="A1:D12" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{63E1F071-2B9C-4B1E-B17C-A17902EC0D6D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3F5C2EB-9D1E-4A6A-BE2F-C1CBACD0EBA2}" name="CharacterIcon"/>
@@ -686,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -808,6 +824,62 @@
       </c>
       <c r="D8" s="4" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9AF474-6DFE-465C-BCFC-0417027CE9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA3FEEA-6B6F-4D9F-A88F-CFD2626D1390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -245,20 +245,72 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ブロックを１００個おいたぴ！Start</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！End</t>
+    <t>Textures/shop_2d_061</t>
+  </si>
+  <si>
+    <t>Textures/shop_2d_056</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！Start3</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！End3</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！Start4</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！End4</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！Start5</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！Start1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！End1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ブロックを１００個おいたぴ！Start2</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ブロックを１００個おいたぴ！End2</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！End5</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！Start6</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！End6</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！Start7</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！End7</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！Start8</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！End8</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！Start9</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！End9</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！Start10</t>
+  </si>
+  <si>
+    <t>ブロックを１００個おいたぴ！End10</t>
   </si>
 </sst>
 </file>
@@ -393,8 +445,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D12" totalsRowShown="0">
-  <autoFilter ref="A1:D12" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{63E1F071-2B9C-4B1E-B17C-A17902EC0D6D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3F5C2EB-9D1E-4A6A-BE2F-C1CBACD0EBA2}" name="CharacterIcon"/>
@@ -702,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -826,7 +878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>100</v>
       </c>
@@ -837,7 +889,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -851,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -865,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -879,7 +931,231 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA3FEEA-6B6F-4D9F-A88F-CFD2626D1390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26533447-9468-4741-B596-5BDDCDAFB77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -245,9 +245,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Textures/shop_2d_061</t>
-  </si>
-  <si>
     <t>Textures/shop_2d_056</t>
   </si>
   <si>
@@ -311,6 +308,10 @@
   </si>
   <si>
     <t>ブロックを１００個おいたぴ！End10</t>
+  </si>
+  <si>
+    <t>おはよ！</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -445,8 +446,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D28" totalsRowShown="0">
-  <autoFilter ref="A1:D28" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D29" totalsRowShown="0">
+  <autoFilter ref="A1:D29" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{63E1F071-2B9C-4B1E-B17C-A17902EC0D6D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3F5C2EB-9D1E-4A6A-BE2F-C1CBACD0EBA2}" name="CharacterIcon"/>
@@ -754,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -878,284 +879,235 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>102</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>105</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>106</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>107</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>108</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>109</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>110</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>111</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>112</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>113</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>114</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>115</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>116</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>117</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>118</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
         <v>119</v>
       </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26533447-9468-4741-B596-5BDDCDAFB77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84282266-F724-4799-88C8-E85111467742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -245,72 +245,676 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Textures/shop_2d_056</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！Start3</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！End3</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！Start4</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！End4</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！Start5</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！Start1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！End1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！Start2</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！End2</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！End5</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！Start6</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！End6</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！Start7</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！End7</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！Start8</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！End8</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！Start9</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！End9</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！Start10</t>
-  </si>
-  <si>
-    <t>ブロックを１００個おいたぴ！End10</t>
-  </si>
-  <si>
-    <t>おはよ！</t>
+    <t>Textures/tutorial_2d_006</t>
+  </si>
+  <si>
+    <t>Textures/tutorial_2d_006</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初めまして！私は、妖精の「フィー」。
+この世界で生きていくためのヒントを教えるフィー！
+困ったときは私をタップしてね！</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ワタシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大変だ！冒険エリアに悪い敵が現れたみたい！
+まずは武器を装備の練習をしてみよう！
+画面右上「マップ」→「装備」をタップでいけるよ！</t>
+    <rPh sb="0" eb="2">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>レンシュウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>武器装備について分かったみたいだね。
+記念に剣「カトラス」をプレゼント！
+まずは好きな武器を装備してみよう！</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>掲示板って知ってるかな？
+毎日何かをチャレンジするとボーナスがもらえるフィー。
+「作業台」をタップして、「掲示板」をクラフトしてみよう！</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>掲示板作れたみたいだね！
+記念に「木材」を100個プレゼント！作業台でクラフトにつかえるよ。
+掲示板はギフト券に交換できるポイントもゲットできるよ！</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かまどって使ったことあるかな？
+作業台では作れない素材やアイテムが作れるよ！
+画面右上の「マップ」→「ホーム」に行って、何か作ってみよう！</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かまどが使えたみたいだね！
+記念に「砂」を100個プレゼント！ガラスブロックをクラフトできるよ。
+かまどや作業台で作れるアイテムは時々増えるからチェックしてね！</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>トキドキ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックを100個ホームに置いて
+イメージしたものを作ってみよう！
+ブロックは、作業台やかまどで作れるフィー！</t>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計図の使い方が分かったみたいだね！
+記念に「空の設計図」を１個プレゼント！
+コピーした設計図はマップに置いたりショップで販売もできるよ！</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ショップ広場に行ってみよう！
+画面右上「マップ」→「ショップ広場」をタップで行けるよ！
+期間限定アイテムや、人が作った建築が帰るお店もあるフィー。</t>
+    <rPh sb="4" eb="6">
+      <t>ヒロバ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒロバ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ケンチク</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ミセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ショップ広場に行けたみたいだね。
+記念に「空の設計図」を１個プレゼント！
+自分で作った建築をコピーしたり、「設計図市場」で販売できるよ！</t>
+    <rPh sb="4" eb="6">
+      <t>ヒロバ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケンチク</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>イチバ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計図をマイショップにアップロードしてみよう！
+画面右上の「マップ」→「ショップ広場」からいけるよ。
+右奥の地球儀前にいるすっぴーに話しかけてみてね！</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒロバ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ミギオク</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>チキュウギ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計図をマイショップにアップロードできたみたいだね！
+記念に「空の設計図」を１個プレゼント！
+アップロードした設計図は、他のクラフターに１週間表示されるよ！</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シュウカン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計図市場にある他のクラフターの設計図に「いいね！」をしよう！
+画面右上の「マップ」→「ショップ広場」から行けるフィー！
+設計図市場にある好きな設計図のハートをタップしてみよう！</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチバ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒロバ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>イチバ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>セッケイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>好きなクラフターの設計図に「いいね！」ができたみたいだね！
+記念に「ライトブロック」を５個プレゼント！
+自分の「いいね」は、マイショップやプロフィールから見れるよ！</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イベント交換所でロイヤルコインとアイテム交換してみよう！
+敵を倒すとゲットできるよ。今回はプレゼントするね！
+「マップ」→「ショップ広場」から切株前のもっぴーに話かけよう！</t>
+    <rPh sb="4" eb="7">
+      <t>コウカンジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒロバ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キリカブ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ハナシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イベント交換所でロイヤルコインを使えたみたいだね！
+記念に「ロイヤルコイン」を１０００枚プレゼント！
+ロイヤルコインは敵を倒すとゲットできるフィー！</t>
+    <rPh sb="4" eb="7">
+      <t>コウカンジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険エリアを１０階まで登ってみよう！
+「マップ」→「冒険」から行けるよ。
+その階の敵を全部倒すと、転送門が開いて次の階にいけるフィー！</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノボ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>テンソウモン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険エリア１０階到達おめでとう！
+記念に「ガチャチケット」を１枚プレゼント！
+「マップ」→「ショップ広場」のガチャガチャ店で使えるよ！</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒロバ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵を倒してLv１０を達成しよう！
+Lvは「マップ」→「装備」からも確認できるフィー！
+Lvがアップすると、戦いが楽になるよ。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lv１０達成おめでとう！
+記念に「ガチャチケット」を２枚プレゼント！
+もうりっぱなクラフターだね！！</t>
+    <rPh sb="4" eb="6">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>マイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -409,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,6 +1031,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,14 +1364,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="95.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -879,235 +1486,235 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>104</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D17" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>108</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D18" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>110</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>111</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>112</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D22" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>113</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D23" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>114</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D24" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>115</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D25" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>116</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D26" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>117</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D27" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>118</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D28" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>119</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="D29" t="s">
-        <v>46</v>
+      <c r="D29" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84282266-F724-4799-88C8-E85111467742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D68575-2B3A-4BA0-B1B6-4DE6B0985C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -915,6 +915,14 @@
     <rPh sb="27" eb="28">
       <t>マイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1053,8 +1061,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D29" totalsRowShown="0">
-  <autoFilter ref="A1:D29" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{63E1F071-2B9C-4B1E-B17C-A17902EC0D6D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3F5C2EB-9D1E-4A6A-BE2F-C1CBACD0EBA2}" name="CharacterIcon"/>
@@ -1362,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1388,7 +1396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1416,7 +1424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1430,7 +1438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1444,7 +1452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1715,6 +1723,28 @@
       </c>
       <c r="D29" s="6" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D68575-2B3A-4BA0-B1B6-4DE6B0985C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B29EC5-7A87-43DC-81F6-8A70B5F4FCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -918,11 +918,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>test1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test2</t>
+    <t>冒険エリアには行ったことある？
+敵を敵がいたり、クラフト素材がとれる資源が豊富な場所だよ！
+「マップ」→「冒険」をタップして、行きたいフロアに行ってみるフィー！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険お疲れさま！
+記念に弓「エイムボウ」をプレゼントするフィー！
+好きな武器を装備して、冒険に出かけてみてね！</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1373,7 +1377,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1725,7 +1729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>120</v>
       </c>
@@ -1736,7 +1740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>121</v>
       </c>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B29EC5-7A87-43DC-81F6-8A70B5F4FCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3427320-87C5-4BEE-B257-EA720556356C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -918,15 +918,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>冒険エリアには行ったことある？
-敵を敵がいたり、クラフト素材がとれる資源が豊富な場所だよ！
-「マップ」→「冒険」をタップして、行きたいフロアに行ってみるフィー！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>冒険お疲れさま！
 記念に弓「エイムボウ」をプレゼントするフィー！
 好きな武器を装備して、冒険に出かけてみてね！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険エリアには行ったことある？
+敵を敵がいたり、クラフト素材がとれる資源が豊富な場所だよ！
+「マップ」→「冒険」をタップして、行きたいフロアに行ってみるフィー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1737,7 +1737,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
@@ -1748,7 +1748,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3427320-87C5-4BEE-B257-EA720556356C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9B4D9D-CB74-43BC-9A8E-04ECD0F7E794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -927,6 +927,14 @@
     <t>冒険エリアには行ったことある？
 敵を敵がいたり、クラフト素材がとれる資源が豊富な場所だよ！
 「マップ」→「冒険」をタップして、行きたいフロアに行ってみるフィー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1065,8 +1073,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D31" totalsRowShown="0">
-  <autoFilter ref="A1:D31" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D33" totalsRowShown="0">
+  <autoFilter ref="A1:D33" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{63E1F071-2B9C-4B1E-B17C-A17902EC0D6D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3F5C2EB-9D1E-4A6A-BE2F-C1CBACD0EBA2}" name="CharacterIcon"/>
@@ -1374,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1749,6 +1757,28 @@
       </c>
       <c r="D31" s="6" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9B4D9D-CB74-43BC-9A8E-04ECD0F7E794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F0581-4BCC-4F29-985A-8A9F1F23F045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -930,11 +930,57 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>test1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test2</t>
+    <t>ガチャガチャ屋さんで武器やレアなブロックなどがゲットできるフィー！
+「ショップ広場」から、ガチャガチャの前にいるてっぴーに話しかけて
+「クリスタルガチャ」10回ガチャを回してみよう！</t>
+    <rPh sb="6" eb="7">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒロバ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガチャガチャ屋さんに行けたみたいだね！
+記念に「ガチャチケット」を１枚プレゼント！
+イベントのガチャも出るから、時々チェックすると良いかも！</t>
+    <rPh sb="6" eb="7">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トキドキ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ヨ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1385,7 +1431,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1759,7 +1805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>122</v>
       </c>
@@ -1770,7 +1816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>123</v>
       </c>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F0581-4BCC-4F29-985A-8A9F1F23F045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE468C37-E5F4-465A-9CAD-E7F1FF8548BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE468C37-E5F4-465A-9CAD-E7F1FF8548BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC742B46-E01F-4ED4-AB69-89B23396BB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -918,12 +918,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>冒険お疲れさま！
-記念に弓「エイムボウ」をプレゼントするフィー！
-好きな武器を装備して、冒険に出かけてみてね！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>冒険エリアには行ったことある？
 敵を敵がいたり、クラフト素材がとれる資源が豊富な場所だよ！
 「マップ」→「冒険」をタップして、行きたいフロアに行ってみるフィー</t>
@@ -980,6 +974,21 @@
     </rPh>
     <rPh sb="65" eb="66">
       <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険お疲れさま！
+記念に杖「理性の杖」をプレゼントするフィー！
+好きな武器を装備して、冒険に出かけてみてね！</t>
+    <rPh sb="12" eb="13">
+      <t>ツエ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツエ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1430,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1791,7 +1800,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
@@ -1802,7 +1811,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
@@ -1813,7 +1822,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
@@ -1824,7 +1833,7 @@
         <v>26</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC742B46-E01F-4ED4-AB69-89B23396BB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E6FDEB-4CDF-4081-A1E8-CD9D8E457ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -989,6 +989,61 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Overview</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>武器を装備してみよう！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「掲示板」をクラフトしてみよう！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックを100個ホームに置いてみよう！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ショップ広場に行ってみよう！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計図をマイショップにアップロードしてみよう！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他のクラフターの設計図に「いいね！」をしよう！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険エリアを１０階まで登ってみよう！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵を倒してLv１０を達成しよう！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「クリスタルガチャ」10回ガチャを回してみよう！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロイヤルコインとアイテム交換してみよう！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険エリアに行ってみよう！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かまどを使ってクラフトしてみよう！</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1128,13 +1183,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:D33" totalsRowShown="0">
-  <autoFilter ref="A1:D33" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:E33" totalsRowShown="0">
+  <autoFilter ref="A1:E33" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{63E1F071-2B9C-4B1E-B17C-A17902EC0D6D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3F5C2EB-9D1E-4A6A-BE2F-C1CBACD0EBA2}" name="CharacterIcon"/>
     <tableColumn id="3" xr3:uid="{16A3B70C-916B-465D-B027-B0276BE4722B}" name="NameIcon"/>
     <tableColumn id="4" xr3:uid="{36418379-1E1E-4295-B374-3D8347F36AE4}" name="Text"/>
+    <tableColumn id="5" xr3:uid="{8F2C083D-89A5-47BD-B3D3-31EF62163104}" name="Overview"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1437,19 +1493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="25.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="95.625" customWidth="1"/>
+    <col min="5" max="5" width="48.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1462,8 +1519,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1477,7 +1537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1491,7 +1551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1505,7 +1565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1519,7 +1579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1533,7 +1593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1547,7 +1607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1561,7 +1621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>99</v>
       </c>
@@ -1572,7 +1632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>100</v>
       </c>
@@ -1582,8 +1642,11 @@
       <c r="D10" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
@@ -1594,7 +1657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>102</v>
       </c>
@@ -1604,8 +1667,11 @@
       <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>103</v>
       </c>
@@ -1616,7 +1682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>104</v>
       </c>
@@ -1626,8 +1692,11 @@
       <c r="D14" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>105</v>
       </c>
@@ -1638,7 +1707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>106</v>
       </c>
@@ -1648,8 +1717,11 @@
       <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>107</v>
       </c>
@@ -1660,7 +1732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>108</v>
       </c>
@@ -1670,8 +1742,11 @@
       <c r="D18" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>109</v>
       </c>
@@ -1682,7 +1757,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>110</v>
       </c>
@@ -1692,8 +1767,11 @@
       <c r="D20" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>111</v>
       </c>
@@ -1704,7 +1782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>112</v>
       </c>
@@ -1714,8 +1792,11 @@
       <c r="D22" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>113</v>
       </c>
@@ -1726,7 +1807,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>114</v>
       </c>
@@ -1736,8 +1817,11 @@
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>115</v>
       </c>
@@ -1748,7 +1832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>116</v>
       </c>
@@ -1758,8 +1842,11 @@
       <c r="D26" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>117</v>
       </c>
@@ -1770,7 +1857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>118</v>
       </c>
@@ -1780,8 +1867,11 @@
       <c r="D28" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>119</v>
       </c>
@@ -1792,7 +1882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>120</v>
       </c>
@@ -1802,8 +1892,11 @@
       <c r="D30" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>121</v>
       </c>
@@ -1814,7 +1907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>122</v>
       </c>
@@ -1823,6 +1916,9 @@
       </c>
       <c r="D32" s="6" t="s">
         <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E6FDEB-4CDF-4081-A1E8-CD9D8E457ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88183A3B-333A-42D6-AA5F-3FA8E0D653C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -801,81 +801,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>冒険エリアを１０階まで登ってみよう！
-「マップ」→「冒険」から行けるよ。
-その階の敵を全部倒すと、転送門が開いて次の階にいけるフィー！</t>
-    <rPh sb="0" eb="2">
-      <t>ボウケン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ノボ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ボウケン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>テンソウモン</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>冒険エリア１０階到達おめでとう！
-記念に「ガチャチケット」を１枚プレゼント！
-「マップ」→「ショップ広場」のガチャガチャ店で使えるよ！</t>
-    <rPh sb="0" eb="2">
-      <t>ボウケン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウタツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キネン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒロバ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>敵を倒してLv１０を達成しよう！
 Lvは「マップ」→「装備」からも確認できるフィー！
 Lvがアップすると、戦いが楽になるよ。</t>
@@ -1021,10 +946,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>冒険エリアを１０階まで登ってみよう！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>敵を倒してLv１０を達成しよう！</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1043,6 +964,78 @@
   <si>
     <t>かまどを使ってクラフトしてみよう！</t>
     <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険エリアを１０Ｆまで登ってみよう！
+「マップ」→「冒険」から行けるよ。
+その階の敵を全部倒すと、転送門が開いて次の階にいけるフィー！</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノボ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>テンソウモン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険エリアを１０Ｆまで登ってみよう！</t>
+  </si>
+  <si>
+    <t>冒険エリア１０Ｆ到達おめでとう！
+記念に「ガチャチケット」を１枚プレゼント！
+「マップ」→「ショップ広場」のガチャガチャ店で使えるよ！</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒロバ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
       <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1495,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1520,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1643,7 +1636,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1668,7 +1661,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1693,7 +1686,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1718,7 +1711,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1743,7 +1736,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1768,7 +1761,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1793,7 +1786,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1818,7 +1811,7 @@
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1840,10 +1833,10 @@
         <v>26</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1854,7 +1847,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1865,10 +1858,10 @@
         <v>26</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1879,7 +1872,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1890,10 +1883,10 @@
         <v>26</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1904,7 +1897,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1915,10 +1908,10 @@
         <v>26</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
@@ -1929,7 +1922,7 @@
         <v>26</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88183A3B-333A-42D6-AA5F-3FA8E0D653C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C5BF18-2C16-420E-93AE-30EC1D183858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -1038,6 +1038,12 @@
     <rPh sb="62" eb="63">
       <t>ツカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初めての設計図のアップロードおつかれさま！
+これからもどんどんアップロードしてくれるとうれしいぴ！
+いいねをしてもポイントがもらえるので、毎日チェックしてみて！</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1176,8 +1182,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:E33" totalsRowShown="0">
-  <autoFilter ref="A1:E33" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}" name="テーブル1" displayName="テーブル1" ref="A1:E34" totalsRowShown="0">
+  <autoFilter ref="A1:E34" xr:uid="{5AD7D494-5A7E-46EB-8AEC-85B2C821A3AD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{63E1F071-2B9C-4B1E-B17C-A17902EC0D6D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{A3F5C2EB-9D1E-4A6A-BE2F-C1CBACD0EBA2}" name="CharacterIcon"/>
@@ -1486,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1923,6 +1929,20 @@
       </c>
       <c r="D33" s="6" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C5BF18-2C16-420E-93AE-30EC1D183858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D18C530-CB99-4B97-8B30-492B4BB57027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -1044,6 +1044,13 @@
     <t>初めての設計図のアップロードおつかれさま！
 これからもどんどんアップロードしてくれるとうれしいぴ！
 いいねをしてもポイントがもらえるので、毎日チェックしてみて！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Textures/NPC_2D_001</t>
+  </si>
+  <si>
+    <t>Textures/NPC_2D_001</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1494,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1624,6 +1631,9 @@
       <c r="A9">
         <v>99</v>
       </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
@@ -1635,6 +1645,9 @@
       <c r="A10">
         <v>100</v>
       </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
@@ -1649,6 +1662,9 @@
       <c r="A11">
         <v>101</v>
       </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -1660,6 +1676,9 @@
       <c r="A12">
         <v>102</v>
       </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
@@ -1674,6 +1693,9 @@
       <c r="A13">
         <v>103</v>
       </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -1685,6 +1707,9 @@
       <c r="A14">
         <v>104</v>
       </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
@@ -1699,6 +1724,9 @@
       <c r="A15">
         <v>105</v>
       </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -1710,6 +1738,9 @@
       <c r="A16">
         <v>106</v>
       </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
@@ -1724,6 +1755,9 @@
       <c r="A17">
         <v>107</v>
       </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -1735,6 +1769,9 @@
       <c r="A18">
         <v>108</v>
       </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -1749,6 +1786,9 @@
       <c r="A19">
         <v>109</v>
       </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -1760,6 +1800,9 @@
       <c r="A20">
         <v>110</v>
       </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
@@ -1774,6 +1817,9 @@
       <c r="A21">
         <v>111</v>
       </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -1785,6 +1831,9 @@
       <c r="A22">
         <v>112</v>
       </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
@@ -1799,6 +1848,9 @@
       <c r="A23">
         <v>113</v>
       </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -1810,6 +1862,9 @@
       <c r="A24">
         <v>114</v>
       </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
@@ -1824,6 +1879,9 @@
       <c r="A25">
         <v>115</v>
       </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
@@ -1835,6 +1893,9 @@
       <c r="A26">
         <v>116</v>
       </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -1849,6 +1910,9 @@
       <c r="A27">
         <v>117</v>
       </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
@@ -1860,6 +1924,9 @@
       <c r="A28">
         <v>118</v>
       </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -1874,6 +1941,9 @@
       <c r="A29">
         <v>119</v>
       </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -1885,6 +1955,9 @@
       <c r="A30">
         <v>120</v>
       </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
@@ -1899,6 +1972,9 @@
       <c r="A31">
         <v>121</v>
       </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -1910,6 +1986,9 @@
       <c r="A32">
         <v>122</v>
       </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
@@ -1923,6 +2002,9 @@
     <row r="33" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D18C530-CB99-4B97-8B30-492B4BB57027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417903B4-0ECE-4D57-8C9A-46D67A56A684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,45 +492,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>設計図の使い方が分かったみたいだね！
-記念に「空の設計図」を１個プレゼント！
-コピーした設計図はマップに置いたりショップで販売もできるよ！</t>
-    <rPh sb="0" eb="3">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キネン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ハンバイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ショップ広場に行ってみよう！
 画面右上「マップ」→「ショップ広場」をタップで行けるよ！
 期間限定アイテムや、人が作った建築が帰るお店もあるフィー。</t>
@@ -843,12 +804,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>冒険エリアには行ったことある？
-敵を敵がいたり、クラフト素材がとれる資源が豊富な場所だよ！
-「マップ」→「冒険」をタップして、行きたいフロアに行ってみるフィー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ガチャガチャ屋さんで武器やレアなブロックなどがゲットできるフィー！
 「ショップ広場」から、ガチャガチャの前にいるてっぴーに話しかけて
 「クリスタルガチャ」10回ガチャを回してみよう！</t>
@@ -1051,6 +1006,48 @@
   </si>
   <si>
     <t>Textures/NPC_2D_001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険エリアには行ったことある？
+敵がいたり、クラフト素材がとれる資源が豊富な場所だよ！
+「マップ」→「冒険」をタップして、行きたいフロアに行ってみるフィー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックを100個置けたみたいだね！
+記念に「爆弾10」を5個プレゼント！
+爆弾でブロックを一気に壊すと気分爽快だよ！</t>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イッキ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キブン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ソウカイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1501,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1526,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1632,7 +1629,7 @@
         <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1646,7 +1643,7 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1655,7 +1652,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1663,7 +1660,7 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1677,7 +1674,7 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -1686,7 +1683,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1694,7 +1691,7 @@
         <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1708,7 +1705,7 @@
         <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -1717,7 +1714,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1725,7 +1722,7 @@
         <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -1739,7 +1736,7 @@
         <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -1748,7 +1745,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1756,13 +1753,13 @@
         <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1770,16 +1767,16 @@
         <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1787,13 +1784,13 @@
         <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1801,16 +1798,16 @@
         <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1818,13 +1815,13 @@
         <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1832,16 +1829,16 @@
         <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1849,13 +1846,13 @@
         <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1863,16 +1860,16 @@
         <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1880,13 +1877,13 @@
         <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1894,16 +1891,16 @@
         <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1911,13 +1908,13 @@
         <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1925,16 +1922,16 @@
         <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1942,13 +1939,13 @@
         <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1956,16 +1953,16 @@
         <v>120</v>
       </c>
       <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1973,13 +1970,13 @@
         <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1987,16 +1984,16 @@
         <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
@@ -2004,13 +2001,13 @@
         <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
@@ -2024,7 +2021,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Chat.xlsx
+++ b/Config/Excel/Chat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417903B4-0ECE-4D57-8C9A-46D67A56A684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79F0842-0CD0-4B80-8209-87D835EFE26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61BFB365-1AD0-44D2-9C0C-CE7D0CAD0CDA}"/>
   </bookViews>
@@ -789,21 +789,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Lv１０達成おめでとう！
-記念に「ガチャチケット」を２枚プレゼント！
-もうりっぱなクラフターだね！！</t>
-    <rPh sb="4" eb="6">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キネン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>マイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ガチャガチャ屋さんで武器やレアなブロックなどがゲットできるフィー！
 「ショップ広場」から、ガチャガチャの前にいるてっぴーに話しかけて
 「クリスタルガチャ」10回ガチャを回してみよう！</t>
@@ -969,33 +954,6 @@
     <t>冒険エリアを１０Ｆまで登ってみよう！</t>
   </si>
   <si>
-    <t>冒険エリア１０Ｆ到達おめでとう！
-記念に「ガチャチケット」を１枚プレゼント！
-「マップ」→「ショップ広場」のガチャガチャ店で使えるよ！</t>
-    <rPh sb="0" eb="2">
-      <t>ボウケン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウタツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キネン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒロバ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>初めての設計図のアップロードおつかれさま！
 これからもどんどんアップロードしてくれるとうれしいぴ！
 いいねをしてもポイントがもらえるので、毎日チェックしてみて！</t>
@@ -1047,6 +1005,36 @@
     </rPh>
     <rPh sb="54" eb="56">
       <t>ソウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冒険エリア１０Ｆ到達おめでとう！
+記念に「武器の心得」を１個プレゼント！
+３個集めると鍛冶台で強力な武器がクラフトできるよ！！</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウタツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lv１０達成おめでとう！
+記念に「武器の心得」を１個プレゼント！
+「武器の心得」は、ごくまれに宝箱からもゲットできるよ！！</t>
+    <rPh sb="4" eb="6">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キネン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>タカラバコ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1498,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62ACAD5-1579-4E2A-84B3-E031BAC69612}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1523,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1629,7 +1617,7 @@
         <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1643,7 +1631,7 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1652,7 +1640,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1660,7 +1648,7 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1674,7 +1662,7 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -1683,7 +1671,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1691,7 +1679,7 @@
         <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1705,7 +1693,7 @@
         <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -1714,7 +1702,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1722,7 +1710,7 @@
         <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -1736,7 +1724,7 @@
         <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -1745,7 +1733,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1753,13 +1741,13 @@
         <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1767,7 +1755,7 @@
         <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -1776,7 +1764,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1784,7 +1772,7 @@
         <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1798,7 +1786,7 @@
         <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -1807,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1815,7 +1803,7 @@
         <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -1829,7 +1817,7 @@
         <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -1838,7 +1826,7 @@
         <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1846,7 +1834,7 @@
         <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -1860,7 +1848,7 @@
         <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1869,7 +1857,7 @@
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1877,7 +1865,7 @@
         <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -1891,16 +1879,16 @@
         <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
         <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1908,13 +1896,13 @@
         <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1922,7 +1910,7 @@
         <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
@@ -1931,7 +1919,7 @@
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1939,13 +1927,13 @@
         <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1953,16 +1941,16 @@
         <v>120</v>
       </c>
       <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1970,13 +1958,13 @@
         <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
@@ -1984,16 +1972,16 @@
         <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
@@ -2001,13 +1989,13 @@
         <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
@@ -2021,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
